--- a/Code/Results/Cases/Case_1_148/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_148/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.03072879791996</v>
+        <v>13.27007749937006</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.257550161443879</v>
+        <v>5.43959068619453</v>
       </c>
       <c r="E2">
-        <v>10.33006703534521</v>
+        <v>15.30061576191037</v>
       </c>
       <c r="F2">
-        <v>22.97213195997129</v>
+        <v>28.09751633851083</v>
       </c>
       <c r="G2">
-        <v>31.50941424561435</v>
+        <v>35.54963467961222</v>
       </c>
       <c r="H2">
-        <v>10.47140596514407</v>
+        <v>15.80924733870064</v>
       </c>
       <c r="I2">
-        <v>17.50264634338595</v>
+        <v>27.32656388733457</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>14.86080909480549</v>
+        <v>9.446741730515994</v>
       </c>
       <c r="L2">
-        <v>6.6092203416705</v>
+        <v>9.495228469461653</v>
       </c>
       <c r="M2">
-        <v>9.680586590414975</v>
+        <v>14.4636480358399</v>
       </c>
       <c r="N2">
-        <v>13.39205465896441</v>
+        <v>20.58930334059145</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.4862476109648</v>
+        <v>13.17904548488857</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.212048802132289</v>
+        <v>5.42302776705454</v>
       </c>
       <c r="E3">
-        <v>10.29683668360455</v>
+        <v>15.30015968497214</v>
       </c>
       <c r="F3">
-        <v>22.25955468315239</v>
+        <v>28.042605111508</v>
       </c>
       <c r="G3">
-        <v>30.40886909700304</v>
+        <v>35.42675836595008</v>
       </c>
       <c r="H3">
-        <v>10.39338503100305</v>
+        <v>15.83900580367749</v>
       </c>
       <c r="I3">
-        <v>17.6694282400108</v>
+        <v>27.41760784283329</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>13.9704450441339</v>
+        <v>9.127488161034385</v>
       </c>
       <c r="L3">
-        <v>6.413505482894963</v>
+        <v>9.48275529099222</v>
       </c>
       <c r="M3">
-        <v>9.408177864224344</v>
+        <v>14.44711818294754</v>
       </c>
       <c r="N3">
-        <v>13.60765554194099</v>
+        <v>20.65246199561317</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.14147670354928</v>
+        <v>13.12531296494148</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.183612310055409</v>
+        <v>5.412648226768514</v>
       </c>
       <c r="E4">
-        <v>10.27757670490111</v>
+        <v>15.30019364599664</v>
       </c>
       <c r="F4">
-        <v>21.83149460943706</v>
+        <v>28.01655210129555</v>
       </c>
       <c r="G4">
-        <v>29.74580397071843</v>
+        <v>35.36245459578806</v>
       </c>
       <c r="H4">
-        <v>10.35288523640268</v>
+        <v>15.86021439990216</v>
       </c>
       <c r="I4">
-        <v>17.7817984647208</v>
+        <v>27.47763959583413</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>13.39540464481768</v>
+        <v>8.927675279479566</v>
       </c>
       <c r="L4">
-        <v>6.293751431274554</v>
+        <v>9.476708544936375</v>
       </c>
       <c r="M4">
-        <v>9.241085359594575</v>
+        <v>14.43913583484856</v>
       </c>
       <c r="N4">
-        <v>13.74294812758955</v>
+        <v>20.69304869166673</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.998532996905054</v>
+        <v>13.10397987605377</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.171904551925039</v>
+        <v>5.408366444556976</v>
       </c>
       <c r="E5">
-        <v>10.26999892786416</v>
+        <v>15.30028652501217</v>
       </c>
       <c r="F5">
-        <v>21.6596341377775</v>
+        <v>28.00786905218356</v>
       </c>
       <c r="G5">
-        <v>29.47911615088468</v>
+        <v>35.33907054135451</v>
       </c>
       <c r="H5">
-        <v>10.33819378661201</v>
+        <v>15.86959458910538</v>
       </c>
       <c r="I5">
-        <v>17.83001336875355</v>
+        <v>27.50314169311203</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>13.15396885112495</v>
+        <v>8.845432601787573</v>
       </c>
       <c r="L5">
-        <v>6.245119993564022</v>
+        <v>9.474651900212455</v>
       </c>
       <c r="M5">
-        <v>9.173129557228373</v>
+        <v>14.43643109104593</v>
       </c>
       <c r="N5">
-        <v>13.79883757736221</v>
+        <v>20.71004380766935</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.974655458872833</v>
+        <v>13.10047211947209</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.169953429543996</v>
+        <v>5.407652336427775</v>
       </c>
       <c r="E6">
-        <v>10.268756533054</v>
+        <v>15.30030672377015</v>
       </c>
       <c r="F6">
-        <v>21.63125831766767</v>
+        <v>28.00654419599878</v>
       </c>
       <c r="G6">
-        <v>29.43505505989117</v>
+        <v>35.335358429595</v>
       </c>
       <c r="H6">
-        <v>10.3358622544647</v>
+        <v>15.87119667587107</v>
       </c>
       <c r="I6">
-        <v>17.83816344650953</v>
+        <v>27.507439031882</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>13.11345084182295</v>
+        <v>8.831731087980286</v>
       </c>
       <c r="L6">
-        <v>6.237056960525839</v>
+        <v>9.474335062729574</v>
       </c>
       <c r="M6">
-        <v>9.161856566274377</v>
+        <v>14.43601516385288</v>
       </c>
       <c r="N6">
-        <v>13.80816436345095</v>
+        <v>20.71289339609151</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.13955855794969</v>
+        <v>13.12502295294149</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.183454892009177</v>
+        <v>5.412590690889352</v>
       </c>
       <c r="E7">
-        <v>10.27747343309169</v>
+        <v>15.30019457843074</v>
       </c>
       <c r="F7">
-        <v>21.82916614028796</v>
+        <v>28.01642716131064</v>
       </c>
       <c r="G7">
-        <v>29.74219264360243</v>
+        <v>35.3621277900019</v>
       </c>
       <c r="H7">
-        <v>10.35267983089169</v>
+        <v>15.86033791963352</v>
       </c>
       <c r="I7">
-        <v>17.78243900218107</v>
+        <v>27.47797932043549</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>13.39217726381432</v>
+        <v>8.926569247727098</v>
       </c>
       <c r="L7">
-        <v>6.293094797219283</v>
+        <v>9.476679155904066</v>
       </c>
       <c r="M7">
-        <v>9.240168207335179</v>
+        <v>14.43909713436512</v>
       </c>
       <c r="N7">
-        <v>13.74369877746976</v>
+        <v>20.69327604686546</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.84526265058967</v>
+        <v>13.23825319623895</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.241968115201318</v>
+        <v>5.43392378014583</v>
       </c>
       <c r="E8">
-        <v>10.31836139798995</v>
+        <v>15.30039338531003</v>
       </c>
       <c r="F8">
-        <v>22.72458789042093</v>
+        <v>28.07699729577509</v>
       </c>
       <c r="G8">
-        <v>31.12750931314029</v>
+        <v>35.50496643843277</v>
       </c>
       <c r="H8">
-        <v>10.44293833065665</v>
+        <v>15.81889798432252</v>
       </c>
       <c r="I8">
-        <v>17.55803298308654</v>
+        <v>27.35709860867432</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>14.55970712765664</v>
+        <v>9.337527639350645</v>
       </c>
       <c r="L8">
-        <v>6.541689384921804</v>
+        <v>9.490594541099522</v>
       </c>
       <c r="M8">
-        <v>9.586680002891194</v>
+        <v>14.45750077913298</v>
       </c>
       <c r="N8">
-        <v>13.46580421487281</v>
+        <v>20.61070619278671</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.13959572536137</v>
+        <v>13.47653774425501</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.35251679700874</v>
+        <v>5.474061875705432</v>
       </c>
       <c r="E9">
-        <v>10.40844012484085</v>
+        <v>15.30327179037456</v>
       </c>
       <c r="F9">
-        <v>24.54732038367574</v>
+        <v>28.25618255070179</v>
       </c>
       <c r="G9">
-        <v>33.93115529417624</v>
+        <v>35.87249432200937</v>
       </c>
       <c r="H9">
-        <v>10.68078326848238</v>
+        <v>15.76097565790786</v>
       </c>
       <c r="I9">
-        <v>17.20103648699664</v>
+        <v>27.15282244638216</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>16.6239629822383</v>
+        <v>10.25409449207247</v>
       </c>
       <c r="L9">
-        <v>7.029835784087152</v>
+        <v>9.53056753431842</v>
       </c>
       <c r="M9">
-        <v>10.26367199130054</v>
+        <v>14.51063296783587</v>
       </c>
       <c r="N9">
-        <v>12.94280823883986</v>
+        <v>20.46306369790679</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.02895888553605</v>
+        <v>13.66023746070868</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.43087195540267</v>
+        <v>5.502477351030169</v>
       </c>
       <c r="E10">
-        <v>10.48191461094409</v>
+        <v>15.30690099192561</v>
       </c>
       <c r="F10">
-        <v>25.91711596815555</v>
+        <v>28.42400168437491</v>
       </c>
       <c r="G10">
-        <v>36.028043851272</v>
+        <v>36.19422110189763</v>
       </c>
       <c r="H10">
-        <v>10.89531680334812</v>
+        <v>15.73269747847825</v>
       </c>
       <c r="I10">
-        <v>16.99532915959113</v>
+        <v>27.02271524483002</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>18.0039526786054</v>
+        <v>10.94859024031854</v>
       </c>
       <c r="L10">
-        <v>7.385683552138</v>
+        <v>9.567514526833966</v>
       </c>
       <c r="M10">
-        <v>10.75482808507129</v>
+        <v>14.55983926363179</v>
       </c>
       <c r="N10">
-        <v>12.57023777930365</v>
+        <v>20.36320694311739</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.41915447036652</v>
+        <v>13.74539965680053</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.465834499126644</v>
+        <v>5.515162635304972</v>
       </c>
       <c r="E11">
-        <v>10.51723768542948</v>
+        <v>15.30888037793613</v>
       </c>
       <c r="F11">
-        <v>26.54516406326052</v>
+        <v>28.50802084587039</v>
       </c>
       <c r="G11">
-        <v>36.98735779805254</v>
+        <v>36.35139303580958</v>
       </c>
       <c r="H11">
-        <v>11.00208640739397</v>
+        <v>15.72294072784665</v>
       </c>
       <c r="I11">
-        <v>16.91546108580047</v>
+        <v>26.96786313277379</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>18.60248876574724</v>
+        <v>11.24854422335192</v>
       </c>
       <c r="L11">
-        <v>7.546397728120959</v>
+        <v>9.585930245368358</v>
       </c>
       <c r="M11">
-        <v>10.97606550211478</v>
+        <v>14.58438001589687</v>
       </c>
       <c r="N11">
-        <v>12.40287932260569</v>
+        <v>20.31963180264531</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.5647825285105</v>
+        <v>13.77785359701633</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.478970990215689</v>
+        <v>5.519930805804231</v>
       </c>
       <c r="E12">
-        <v>10.53091591524916</v>
+        <v>15.30967708758438</v>
       </c>
       <c r="F12">
-        <v>26.78358065759146</v>
+        <v>28.54092243815357</v>
       </c>
       <c r="G12">
-        <v>37.35123883537233</v>
+        <v>36.41242496746644</v>
       </c>
       <c r="H12">
-        <v>11.04387797803889</v>
+        <v>15.71969324270163</v>
       </c>
       <c r="I12">
-        <v>16.88731766647343</v>
+        <v>26.94771545073555</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>18.82498173433529</v>
+        <v>11.35980658969318</v>
       </c>
       <c r="L12">
-        <v>7.607049760907864</v>
+        <v>9.593131423020713</v>
       </c>
       <c r="M12">
-        <v>11.05946660234274</v>
+        <v>14.59397809251569</v>
       </c>
       <c r="N12">
-        <v>12.33977569847834</v>
+        <v>20.30339571533382</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.53351450375663</v>
+        <v>13.77085534425129</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.476146473534375</v>
+        <v>5.518905485409712</v>
       </c>
       <c r="E13">
-        <v>10.52795613055735</v>
+        <v>15.30950340562246</v>
       </c>
       <c r="F13">
-        <v>26.7322088234009</v>
+        <v>28.53378853614591</v>
       </c>
       <c r="G13">
-        <v>37.27284565733002</v>
+        <v>36.39921398698873</v>
       </c>
       <c r="H13">
-        <v>11.03481628171723</v>
+        <v>15.72037275367843</v>
       </c>
       <c r="I13">
-        <v>16.89328326073313</v>
+        <v>26.95202687295497</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>18.77724810353931</v>
+        <v>11.33594795604631</v>
       </c>
       <c r="L13">
-        <v>7.593997029235884</v>
+        <v>9.59157046250005</v>
       </c>
       <c r="M13">
-        <v>11.0415223307403</v>
+        <v>14.59189749284114</v>
       </c>
       <c r="N13">
-        <v>12.35335469164537</v>
+        <v>20.30688068567768</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.43117837914838</v>
+        <v>13.74806569837232</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.466917339814004</v>
+        <v>5.515555631080515</v>
       </c>
       <c r="E14">
-        <v>10.51835676895578</v>
+        <v>15.30894497898201</v>
       </c>
       <c r="F14">
-        <v>26.56476753588113</v>
+        <v>28.51070604072535</v>
       </c>
       <c r="G14">
-        <v>37.01728310629007</v>
+        <v>36.35638406688258</v>
       </c>
       <c r="H14">
-        <v>11.00549713462699</v>
+        <v>15.72266459142082</v>
       </c>
       <c r="I14">
-        <v>16.91310283138562</v>
+        <v>26.96619307043715</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>18.62087647996937</v>
+        <v>11.25774454670604</v>
       </c>
       <c r="L14">
-        <v>7.551391959766926</v>
+        <v>9.58651815250656</v>
       </c>
       <c r="M14">
-        <v>10.98293483421222</v>
+        <v>14.58516357239002</v>
       </c>
       <c r="N14">
-        <v>12.3976825143779</v>
+        <v>20.31829074826787</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.36821550538343</v>
+        <v>13.73413232523757</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.461250660984591</v>
+        <v>5.513499105220942</v>
       </c>
       <c r="E15">
-        <v>10.51251714487332</v>
+        <v>15.30860906595949</v>
       </c>
       <c r="F15">
-        <v>26.46227845386156</v>
+        <v>28.49670810709295</v>
       </c>
       <c r="G15">
-        <v>36.8608187740132</v>
+        <v>36.33034544019117</v>
       </c>
       <c r="H15">
-        <v>10.98771664216127</v>
+        <v>15.72412665347867</v>
       </c>
       <c r="I15">
-        <v>16.9255204835191</v>
+        <v>26.9749515002781</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>18.52455408334797</v>
+        <v>11.20953939978321</v>
       </c>
       <c r="L15">
-        <v>7.525267103893619</v>
+        <v>9.583452984808076</v>
       </c>
       <c r="M15">
-        <v>10.94699755467496</v>
+        <v>14.5810784193409</v>
       </c>
       <c r="N15">
-        <v>12.42486887509066</v>
+        <v>20.32531420036828</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.00316358512515</v>
+        <v>13.65470192834485</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.428572918020431</v>
+        <v>5.501643418106688</v>
       </c>
       <c r="E16">
-        <v>10.47964679696188</v>
+        <v>15.30677823747858</v>
       </c>
       <c r="F16">
-        <v>25.87615978407537</v>
+        <v>28.41866377205676</v>
       </c>
       <c r="G16">
-        <v>35.96544400892552</v>
+        <v>36.18416376745913</v>
       </c>
       <c r="H16">
-        <v>10.88852731831868</v>
+        <v>15.7333976648731</v>
       </c>
       <c r="I16">
-        <v>17.0008354614657</v>
+        <v>27.0263872065821</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>17.96425227612651</v>
+        <v>10.92866368009634</v>
       </c>
       <c r="L16">
-        <v>7.375153564572792</v>
+        <v>9.566343066826748</v>
       </c>
       <c r="M16">
-        <v>10.74032015029836</v>
+        <v>14.55827843518862</v>
       </c>
       <c r="N16">
-        <v>12.58121494018846</v>
+        <v>20.36609181031111</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.77548304425506</v>
+        <v>13.60636532403869</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.408347935799906</v>
+        <v>5.494308022390447</v>
       </c>
       <c r="E17">
-        <v>10.45998807405928</v>
+        <v>15.30573915546984</v>
       </c>
       <c r="F17">
-        <v>25.51776234291512</v>
+        <v>28.37273979154935</v>
       </c>
       <c r="G17">
-        <v>35.41741497090291</v>
+        <v>36.09722827230485</v>
       </c>
       <c r="H17">
-        <v>10.83005759199184</v>
+        <v>15.73988126405248</v>
       </c>
       <c r="I17">
-        <v>17.05063940509784</v>
+        <v>27.05905171299349</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>17.61306699148445</v>
+        <v>10.75224310415815</v>
       </c>
       <c r="L17">
-        <v>7.282735695612059</v>
+        <v>9.556256044495225</v>
       </c>
       <c r="M17">
-        <v>10.61292253557001</v>
+        <v>14.54484020422624</v>
       </c>
       <c r="N17">
-        <v>12.67764889960404</v>
+        <v>20.3915805876786</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.64317631548306</v>
+        <v>13.57871513340567</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.396651192003181</v>
+        <v>5.490066255468569</v>
       </c>
       <c r="E18">
-        <v>10.44885774756557</v>
+        <v>15.30517242199054</v>
       </c>
       <c r="F18">
-        <v>25.31209039067501</v>
+        <v>28.34704940084515</v>
       </c>
       <c r="G18">
-        <v>35.10272159164452</v>
+        <v>36.04824607800017</v>
       </c>
       <c r="H18">
-        <v>10.79728881910809</v>
+        <v>15.74390290404007</v>
       </c>
       <c r="I18">
-        <v>17.08056741310463</v>
+        <v>27.07824741623092</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>17.40832019196938</v>
+        <v>10.64926812886265</v>
       </c>
       <c r="L18">
-        <v>7.229471921150185</v>
+        <v>9.55060588048795</v>
       </c>
       <c r="M18">
-        <v>10.53944365486584</v>
+        <v>14.53731419766854</v>
       </c>
       <c r="N18">
-        <v>12.73331741958642</v>
+        <v>20.40641527766406</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.59814969329915</v>
+        <v>13.56938006403986</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.392680063757235</v>
+        <v>5.488626202038876</v>
       </c>
       <c r="E19">
-        <v>10.44511874715131</v>
+        <v>15.30498584827466</v>
       </c>
       <c r="F19">
-        <v>25.24253797416142</v>
+        <v>28.33847593875656</v>
       </c>
       <c r="G19">
-        <v>34.99626681787063</v>
+        <v>36.03183807218874</v>
       </c>
       <c r="H19">
-        <v>10.78634058025214</v>
+        <v>15.74531477577837</v>
       </c>
       <c r="I19">
-        <v>17.09091692067663</v>
+        <v>27.08481680564621</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>17.33852222562425</v>
+        <v>10.61414541259322</v>
       </c>
       <c r="L19">
-        <v>7.211420579611391</v>
+        <v>9.548718983404401</v>
       </c>
       <c r="M19">
-        <v>10.51453208427398</v>
+        <v>14.53480108981101</v>
       </c>
       <c r="N19">
-        <v>12.75220157222925</v>
+        <v>20.41146800741357</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.79986034601814</v>
+        <v>13.61149531093502</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.410507567219206</v>
+        <v>5.495091236924528</v>
       </c>
       <c r="E20">
-        <v>10.46206227425536</v>
+        <v>15.30584656805929</v>
       </c>
       <c r="F20">
-        <v>25.55586679314264</v>
+        <v>28.37755368917336</v>
       </c>
       <c r="G20">
-        <v>35.4757013267203</v>
+        <v>36.1063773424294</v>
       </c>
       <c r="H20">
-        <v>10.83619233864706</v>
+        <v>15.73916080357413</v>
       </c>
       <c r="I20">
-        <v>17.04520408796909</v>
+        <v>27.05553229741373</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>17.65073604193355</v>
+        <v>10.77117909114719</v>
       </c>
       <c r="L20">
-        <v>7.292585165181811</v>
+        <v>9.557314158942983</v>
       </c>
       <c r="M20">
-        <v>10.62650572473578</v>
+        <v>14.54624972111106</v>
       </c>
       <c r="N20">
-        <v>12.66736264879601</v>
+        <v>20.38884924135468</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.46129522127765</v>
+        <v>13.75475420764071</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.469630996328588</v>
+        <v>5.516540533607901</v>
       </c>
       <c r="E21">
-        <v>10.52116788739248</v>
+        <v>15.30910772310149</v>
       </c>
       <c r="F21">
-        <v>26.61393395012986</v>
+        <v>28.5174566304394</v>
       </c>
       <c r="G21">
-        <v>37.09233260959429</v>
+        <v>36.36892349750349</v>
       </c>
       <c r="H21">
-        <v>11.01407164342973</v>
+        <v>15.7219792844</v>
       </c>
       <c r="I21">
-        <v>16.90722324932765</v>
+        <v>26.96201518700319</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>18.66691911579889</v>
+        <v>11.2807780305931</v>
       </c>
       <c r="L21">
-        <v>7.563912002905742</v>
+        <v>9.587995993888777</v>
       </c>
       <c r="M21">
-        <v>11.00015407601368</v>
+        <v>14.5871332516642</v>
       </c>
       <c r="N21">
-        <v>12.38465527669189</v>
+        <v>20.31493215710882</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.88114469167186</v>
+        <v>13.84956470143788</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.507668660797318</v>
+        <v>5.530351761388352</v>
       </c>
       <c r="E22">
-        <v>10.56157369642553</v>
+        <v>15.31151392328115</v>
       </c>
       <c r="F22">
-        <v>27.30883567064665</v>
+        <v>28.61520767624763</v>
       </c>
       <c r="G22">
-        <v>38.15240217866428</v>
+        <v>36.54931801321141</v>
       </c>
       <c r="H22">
-        <v>11.13827291933698</v>
+        <v>15.71335676666571</v>
       </c>
       <c r="I22">
-        <v>16.82935686673579</v>
+        <v>26.90453147389007</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>19.30683457821055</v>
+        <v>11.60027768701441</v>
       </c>
       <c r="L22">
-        <v>7.740019664631411</v>
+        <v>9.609372748939512</v>
       </c>
       <c r="M22">
-        <v>11.24213633295614</v>
+        <v>14.61562837177837</v>
       </c>
       <c r="N22">
-        <v>12.20145406983721</v>
+        <v>20.26816640899419</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.65821767341069</v>
+        <v>13.79886256254884</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.48742401582026</v>
+        <v>5.522999667738691</v>
       </c>
       <c r="E23">
-        <v>10.53983536666584</v>
+        <v>15.3102045637154</v>
       </c>
       <c r="F23">
-        <v>26.93767543997246</v>
+        <v>28.56246478012383</v>
       </c>
       <c r="G23">
-        <v>37.58634655203862</v>
+        <v>36.45224675835118</v>
       </c>
       <c r="H23">
-        <v>11.07124401230138</v>
+        <v>15.71772017770643</v>
       </c>
       <c r="I23">
-        <v>16.86974394893076</v>
+        <v>26.93487887787787</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>18.96749892768774</v>
+        <v>11.43100208051819</v>
       </c>
       <c r="L23">
-        <v>7.646150812625711</v>
+        <v>9.597843685712157</v>
       </c>
       <c r="M23">
-        <v>11.1132070707973</v>
+        <v>14.60025929631091</v>
       </c>
       <c r="N23">
-        <v>12.29910075129306</v>
+        <v>20.29298534139274</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.78884375527151</v>
+        <v>13.60917560849369</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.409531412799988</v>
+        <v>5.494737222028353</v>
       </c>
       <c r="E24">
-        <v>10.46112399558825</v>
+        <v>15.30579791140058</v>
       </c>
       <c r="F24">
-        <v>25.53863859217547</v>
+        <v>28.37537510704665</v>
       </c>
       <c r="G24">
-        <v>35.44934888111984</v>
+        <v>36.10223793542484</v>
       </c>
       <c r="H24">
-        <v>10.83341618687602</v>
+        <v>15.73948560754956</v>
       </c>
       <c r="I24">
-        <v>17.04765737072354</v>
+        <v>27.05712212800459</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>17.63371473111664</v>
+        <v>10.76262295248259</v>
       </c>
       <c r="L24">
-        <v>7.288132626524821</v>
+        <v>9.556835320997903</v>
       </c>
       <c r="M24">
-        <v>10.62036549615879</v>
+        <v>14.54561185574936</v>
       </c>
       <c r="N24">
-        <v>12.67201235206805</v>
+        <v>20.39008351956787</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.79984352365068</v>
+        <v>13.41046527909914</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.323092048481715</v>
+        <v>5.463389159186537</v>
       </c>
       <c r="E25">
-        <v>10.38288883180441</v>
+        <v>15.3022269632886</v>
       </c>
       <c r="F25">
-        <v>24.04817334598569</v>
+        <v>28.2013007996029</v>
       </c>
       <c r="G25">
-        <v>33.16515121343668</v>
+        <v>35.76385831501894</v>
       </c>
       <c r="H25">
-        <v>10.60963828726445</v>
+        <v>15.77414083957941</v>
       </c>
       <c r="I25">
-        <v>17.28813435278818</v>
+        <v>27.20457666519207</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>16.0896195228998</v>
+        <v>9.984385109628617</v>
       </c>
       <c r="L25">
-        <v>6.898058790307833</v>
+        <v>9.518410660403719</v>
       </c>
       <c r="M25">
-        <v>10.08130807384836</v>
+        <v>14.49445623831486</v>
       </c>
       <c r="N25">
-        <v>13.08211293397356</v>
+        <v>20.50148554638109</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_148/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_148/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.27007749937006</v>
+        <v>11.03072879791997</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5.43959068619453</v>
+        <v>4.257550161443932</v>
       </c>
       <c r="E2">
-        <v>15.30061576191037</v>
+        <v>10.33006703534528</v>
       </c>
       <c r="F2">
-        <v>28.09751633851083</v>
+        <v>22.97213195997114</v>
       </c>
       <c r="G2">
-        <v>35.54963467961222</v>
+        <v>31.50941424561426</v>
       </c>
       <c r="H2">
-        <v>15.80924733870064</v>
+        <v>10.47140596514394</v>
       </c>
       <c r="I2">
-        <v>27.32656388733457</v>
+        <v>17.50264634338584</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.446741730515994</v>
+        <v>14.86080909480551</v>
       </c>
       <c r="L2">
-        <v>9.495228469461653</v>
+        <v>6.609220341670524</v>
       </c>
       <c r="M2">
-        <v>14.4636480358399</v>
+        <v>9.680586590414984</v>
       </c>
       <c r="N2">
-        <v>20.58930334059145</v>
+        <v>13.39205465896428</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.17904548488857</v>
+        <v>10.4862476109648</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5.42302776705454</v>
+        <v>4.212048802132351</v>
       </c>
       <c r="E3">
-        <v>15.30015968497214</v>
+        <v>10.29683668360455</v>
       </c>
       <c r="F3">
-        <v>28.042605111508</v>
+        <v>22.25955468315237</v>
       </c>
       <c r="G3">
-        <v>35.42675836595008</v>
+        <v>30.408869097003</v>
       </c>
       <c r="H3">
-        <v>15.83900580367749</v>
+        <v>10.39338503100305</v>
       </c>
       <c r="I3">
-        <v>27.41760784283329</v>
+        <v>17.66942824001081</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.127488161034385</v>
+        <v>13.97044504413391</v>
       </c>
       <c r="L3">
-        <v>9.48275529099222</v>
+        <v>6.413505482894942</v>
       </c>
       <c r="M3">
-        <v>14.44711818294754</v>
+        <v>9.408177864224321</v>
       </c>
       <c r="N3">
-        <v>20.65246199561317</v>
+        <v>13.60765554194099</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.12531296494148</v>
+        <v>10.14147670354935</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.412648226768514</v>
+        <v>4.183612310055277</v>
       </c>
       <c r="E4">
-        <v>15.30019364599664</v>
+        <v>10.27757670490124</v>
       </c>
       <c r="F4">
-        <v>28.01655210129555</v>
+        <v>21.83149460943703</v>
       </c>
       <c r="G4">
-        <v>35.36245459578806</v>
+        <v>29.74580397071843</v>
       </c>
       <c r="H4">
-        <v>15.86021439990216</v>
+        <v>10.35288523640265</v>
       </c>
       <c r="I4">
-        <v>27.47763959583413</v>
+        <v>17.78179846472083</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.927675279479566</v>
+        <v>13.3954046448177</v>
       </c>
       <c r="L4">
-        <v>9.476708544936375</v>
+        <v>6.293751431274528</v>
       </c>
       <c r="M4">
-        <v>14.43913583484856</v>
+        <v>9.241085359594594</v>
       </c>
       <c r="N4">
-        <v>20.69304869166673</v>
+        <v>13.74294812758955</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.10397987605377</v>
+        <v>9.998532996905084</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.408366444556976</v>
+        <v>4.171904551925102</v>
       </c>
       <c r="E5">
-        <v>15.30028652501217</v>
+        <v>10.2699989278643</v>
       </c>
       <c r="F5">
-        <v>28.00786905218356</v>
+        <v>21.65963413777738</v>
       </c>
       <c r="G5">
-        <v>35.33907054135451</v>
+        <v>29.47911615088461</v>
       </c>
       <c r="H5">
-        <v>15.86959458910538</v>
+        <v>10.338193786612</v>
       </c>
       <c r="I5">
-        <v>27.50314169311203</v>
+        <v>17.83001336875355</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.845432601787573</v>
+        <v>13.15396885112497</v>
       </c>
       <c r="L5">
-        <v>9.474651900212455</v>
+        <v>6.245119993564064</v>
       </c>
       <c r="M5">
-        <v>14.43643109104593</v>
+        <v>9.173129557228398</v>
       </c>
       <c r="N5">
-        <v>20.71004380766935</v>
+        <v>13.79883757736221</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.10047211947209</v>
+        <v>9.974655458872826</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.407652336427775</v>
+        <v>4.169953429543862</v>
       </c>
       <c r="E6">
-        <v>15.30030672377015</v>
+        <v>10.268756533054</v>
       </c>
       <c r="F6">
-        <v>28.00654419599878</v>
+        <v>21.63125831766784</v>
       </c>
       <c r="G6">
-        <v>35.335358429595</v>
+        <v>29.43505505989134</v>
       </c>
       <c r="H6">
-        <v>15.87119667587107</v>
+        <v>10.33586225446475</v>
       </c>
       <c r="I6">
-        <v>27.507439031882</v>
+        <v>17.83816344650952</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.831731087980286</v>
+        <v>13.11345084182285</v>
       </c>
       <c r="L6">
-        <v>9.474335062729574</v>
+        <v>6.237056960525912</v>
       </c>
       <c r="M6">
-        <v>14.43601516385288</v>
+        <v>9.161856566274443</v>
       </c>
       <c r="N6">
-        <v>20.71289339609151</v>
+        <v>13.80816436345092</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.12502295294149</v>
+        <v>10.13955855794971</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.412590690889352</v>
+        <v>4.183454892009241</v>
       </c>
       <c r="E7">
-        <v>15.30019457843074</v>
+        <v>10.27747343309175</v>
       </c>
       <c r="F7">
-        <v>28.01642716131064</v>
+        <v>21.8291661402879</v>
       </c>
       <c r="G7">
-        <v>35.3621277900019</v>
+        <v>29.74219264360232</v>
       </c>
       <c r="H7">
-        <v>15.86033791963352</v>
+        <v>10.35267983089168</v>
       </c>
       <c r="I7">
-        <v>27.47797932043549</v>
+        <v>17.78243900218109</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.926569247727098</v>
+        <v>13.39217726381433</v>
       </c>
       <c r="L7">
-        <v>9.476679155904066</v>
+        <v>6.293094797219275</v>
       </c>
       <c r="M7">
-        <v>14.43909713436512</v>
+        <v>9.240168207335183</v>
       </c>
       <c r="N7">
-        <v>20.69327604686546</v>
+        <v>13.74369877746976</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.23825319623895</v>
+        <v>10.84526265058964</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>5.43392378014583</v>
+        <v>4.24196811520126</v>
       </c>
       <c r="E8">
-        <v>15.30039338531003</v>
+        <v>10.31836139798981</v>
       </c>
       <c r="F8">
-        <v>28.07699729577509</v>
+        <v>22.72458789042093</v>
       </c>
       <c r="G8">
-        <v>35.50496643843277</v>
+        <v>31.12750931314028</v>
       </c>
       <c r="H8">
-        <v>15.81889798432252</v>
+        <v>10.44293833065669</v>
       </c>
       <c r="I8">
-        <v>27.35709860867432</v>
+        <v>17.55803298308645</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.337527639350645</v>
+        <v>14.55970712765659</v>
       </c>
       <c r="L8">
-        <v>9.490594541099522</v>
+        <v>6.541689384921831</v>
       </c>
       <c r="M8">
-        <v>14.45750077913298</v>
+        <v>9.586680002891173</v>
       </c>
       <c r="N8">
-        <v>20.61070619278671</v>
+        <v>13.46580421487281</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.47653774425501</v>
+        <v>12.13959572536133</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5.474061875705432</v>
+        <v>4.352516797008745</v>
       </c>
       <c r="E9">
-        <v>15.30327179037456</v>
+        <v>10.40844012484079</v>
       </c>
       <c r="F9">
-        <v>28.25618255070179</v>
+        <v>24.54732038367574</v>
       </c>
       <c r="G9">
-        <v>35.87249432200937</v>
+        <v>33.93115529417621</v>
       </c>
       <c r="H9">
-        <v>15.76097565790786</v>
+        <v>10.68078326848242</v>
       </c>
       <c r="I9">
-        <v>27.15282244638216</v>
+        <v>17.2010364869966</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>10.25409449207247</v>
+        <v>16.6239629822383</v>
       </c>
       <c r="L9">
-        <v>9.53056753431842</v>
+        <v>7.029835784087139</v>
       </c>
       <c r="M9">
-        <v>14.51063296783587</v>
+        <v>10.26367199130052</v>
       </c>
       <c r="N9">
-        <v>20.46306369790679</v>
+        <v>12.94280823883986</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.66023746070868</v>
+        <v>13.02895888553603</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.502477351030169</v>
+        <v>4.430871955402553</v>
       </c>
       <c r="E10">
-        <v>15.30690099192561</v>
+        <v>10.48191461094409</v>
       </c>
       <c r="F10">
-        <v>28.42400168437491</v>
+        <v>25.91711596815558</v>
       </c>
       <c r="G10">
-        <v>36.19422110189763</v>
+        <v>36.02804385127203</v>
       </c>
       <c r="H10">
-        <v>15.73269747847825</v>
+        <v>10.89531680334813</v>
       </c>
       <c r="I10">
-        <v>27.02271524483002</v>
+        <v>16.99532915959105</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>10.94859024031854</v>
+        <v>18.00395267860543</v>
       </c>
       <c r="L10">
-        <v>9.567514526833966</v>
+        <v>7.385683552138027</v>
       </c>
       <c r="M10">
-        <v>14.55983926363179</v>
+        <v>10.75482808507128</v>
       </c>
       <c r="N10">
-        <v>20.36320694311739</v>
+        <v>12.57023777930365</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.74539965680053</v>
+        <v>13.41915447036656</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.515162635304972</v>
+        <v>4.46583449912694</v>
       </c>
       <c r="E11">
-        <v>15.30888037793613</v>
+        <v>10.51723768542954</v>
       </c>
       <c r="F11">
-        <v>28.50802084587039</v>
+        <v>26.5451640632605</v>
       </c>
       <c r="G11">
-        <v>36.35139303580958</v>
+        <v>36.98735779805257</v>
       </c>
       <c r="H11">
-        <v>15.72294072784665</v>
+        <v>11.00208640739397</v>
       </c>
       <c r="I11">
-        <v>26.96786313277379</v>
+        <v>16.91546108580056</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>11.24854422335192</v>
+        <v>18.60248876574722</v>
       </c>
       <c r="L11">
-        <v>9.585930245368358</v>
+        <v>7.546397728120935</v>
       </c>
       <c r="M11">
-        <v>14.58438001589687</v>
+        <v>10.97606550211479</v>
       </c>
       <c r="N11">
-        <v>20.31963180264531</v>
+        <v>12.40287932260576</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.77785359701633</v>
+        <v>13.56478252851054</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.519930805804231</v>
+        <v>4.478970990215851</v>
       </c>
       <c r="E12">
-        <v>15.30967708758438</v>
+        <v>10.53091591524929</v>
       </c>
       <c r="F12">
-        <v>28.54092243815357</v>
+        <v>26.78358065759139</v>
       </c>
       <c r="G12">
-        <v>36.41242496746644</v>
+        <v>37.35123883537229</v>
       </c>
       <c r="H12">
-        <v>15.71969324270163</v>
+        <v>11.04387797803886</v>
       </c>
       <c r="I12">
-        <v>26.94771545073555</v>
+        <v>16.88731766647349</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>11.35980658969318</v>
+        <v>18.82498173433536</v>
       </c>
       <c r="L12">
-        <v>9.593131423020713</v>
+        <v>7.607049760907827</v>
       </c>
       <c r="M12">
-        <v>14.59397809251569</v>
+        <v>11.05946660234274</v>
       </c>
       <c r="N12">
-        <v>20.30339571533382</v>
+        <v>12.3397756984783</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.77085534425129</v>
+        <v>13.53351450375668</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.518905485409712</v>
+        <v>4.476146473534252</v>
       </c>
       <c r="E13">
-        <v>15.30950340562246</v>
+        <v>10.52795613055762</v>
       </c>
       <c r="F13">
-        <v>28.53378853614591</v>
+        <v>26.7322088234009</v>
       </c>
       <c r="G13">
-        <v>36.39921398698873</v>
+        <v>37.27284565733001</v>
       </c>
       <c r="H13">
-        <v>15.72037275367843</v>
+        <v>11.03481628171723</v>
       </c>
       <c r="I13">
-        <v>26.95202687295497</v>
+        <v>16.89328326073322</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>11.33594795604631</v>
+        <v>18.77724810353934</v>
       </c>
       <c r="L13">
-        <v>9.59157046250005</v>
+        <v>7.593997029235894</v>
       </c>
       <c r="M13">
-        <v>14.59189749284114</v>
+        <v>11.04152233074034</v>
       </c>
       <c r="N13">
-        <v>20.30688068567768</v>
+        <v>12.35335469164537</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.74806569837232</v>
+        <v>13.4311783791484</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.515555631080515</v>
+        <v>4.466917339814005</v>
       </c>
       <c r="E14">
-        <v>15.30894497898201</v>
+        <v>10.51835676895585</v>
       </c>
       <c r="F14">
-        <v>28.51070604072535</v>
+        <v>26.5647675358811</v>
       </c>
       <c r="G14">
-        <v>36.35638406688258</v>
+        <v>37.01728310629006</v>
       </c>
       <c r="H14">
-        <v>15.72266459142082</v>
+        <v>11.00549713462699</v>
       </c>
       <c r="I14">
-        <v>26.96619307043715</v>
+        <v>16.91310283138555</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>11.25774454670604</v>
+        <v>18.62087647996933</v>
       </c>
       <c r="L14">
-        <v>9.58651815250656</v>
+        <v>7.551391959766956</v>
       </c>
       <c r="M14">
-        <v>14.58516357239002</v>
+        <v>10.98293483421224</v>
       </c>
       <c r="N14">
-        <v>20.31829074826787</v>
+        <v>12.39768251437777</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.73413232523757</v>
+        <v>13.36821550538342</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.513499105220942</v>
+        <v>4.461250660984769</v>
       </c>
       <c r="E15">
-        <v>15.30860906595949</v>
+        <v>10.51251714487332</v>
       </c>
       <c r="F15">
-        <v>28.49670810709295</v>
+        <v>26.46227845386153</v>
       </c>
       <c r="G15">
-        <v>36.33034544019117</v>
+        <v>36.8608187740132</v>
       </c>
       <c r="H15">
-        <v>15.72412665347867</v>
+        <v>10.98771664216127</v>
       </c>
       <c r="I15">
-        <v>26.9749515002781</v>
+        <v>16.92552048351911</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>11.20953939978321</v>
+        <v>18.524554083348</v>
       </c>
       <c r="L15">
-        <v>9.583452984808076</v>
+        <v>7.525267103893605</v>
       </c>
       <c r="M15">
-        <v>14.5810784193409</v>
+        <v>10.94699755467494</v>
       </c>
       <c r="N15">
-        <v>20.32531420036828</v>
+        <v>12.42486887509073</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.65470192834485</v>
+        <v>13.00316358512516</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.501643418106688</v>
+        <v>4.428572918020378</v>
       </c>
       <c r="E16">
-        <v>15.30677823747858</v>
+        <v>10.47964679696188</v>
       </c>
       <c r="F16">
-        <v>28.41866377205676</v>
+        <v>25.87615978407539</v>
       </c>
       <c r="G16">
-        <v>36.18416376745913</v>
+        <v>35.96544400892547</v>
       </c>
       <c r="H16">
-        <v>15.7333976648731</v>
+        <v>10.88852731831866</v>
       </c>
       <c r="I16">
-        <v>27.0263872065821</v>
+        <v>17.00083546146566</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>10.92866368009634</v>
+        <v>17.96425227612653</v>
       </c>
       <c r="L16">
-        <v>9.566343066826748</v>
+        <v>7.375153564572784</v>
       </c>
       <c r="M16">
-        <v>14.55827843518862</v>
+        <v>10.74032015029837</v>
       </c>
       <c r="N16">
-        <v>20.36609181031111</v>
+        <v>12.58121494018843</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.60636532403869</v>
+        <v>12.7754830442551</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.494308022390447</v>
+        <v>4.408347935799831</v>
       </c>
       <c r="E17">
-        <v>15.30573915546984</v>
+        <v>10.45998807405961</v>
       </c>
       <c r="F17">
-        <v>28.37273979154935</v>
+        <v>25.51776234291511</v>
       </c>
       <c r="G17">
-        <v>36.09722827230485</v>
+        <v>35.41741497090287</v>
       </c>
       <c r="H17">
-        <v>15.73988126405248</v>
+        <v>10.83005759199182</v>
       </c>
       <c r="I17">
-        <v>27.05905171299349</v>
+        <v>17.05063940509803</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>10.75224310415815</v>
+        <v>17.61306699148455</v>
       </c>
       <c r="L17">
-        <v>9.556256044495225</v>
+        <v>7.282735695612058</v>
       </c>
       <c r="M17">
-        <v>14.54484020422624</v>
+        <v>10.61292253557004</v>
       </c>
       <c r="N17">
-        <v>20.3915805876786</v>
+        <v>12.67764889960414</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.57871513340567</v>
+        <v>12.64317631548311</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.490066255468569</v>
+        <v>4.396651192003183</v>
       </c>
       <c r="E18">
-        <v>15.30517242199054</v>
+        <v>10.4488577475657</v>
       </c>
       <c r="F18">
-        <v>28.34704940084515</v>
+        <v>25.31209039067504</v>
       </c>
       <c r="G18">
-        <v>36.04824607800017</v>
+        <v>35.1027215916446</v>
       </c>
       <c r="H18">
-        <v>15.74390290404007</v>
+        <v>10.7972888191081</v>
       </c>
       <c r="I18">
-        <v>27.07824741623092</v>
+        <v>17.08056741310473</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>10.64926812886265</v>
+        <v>17.40832019196939</v>
       </c>
       <c r="L18">
-        <v>9.55060588048795</v>
+        <v>7.229471921150219</v>
       </c>
       <c r="M18">
-        <v>14.53731419766854</v>
+        <v>10.53944365486585</v>
       </c>
       <c r="N18">
-        <v>20.40641527766406</v>
+        <v>12.73331741958646</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.56938006403986</v>
+        <v>12.59814969329918</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.488626202038876</v>
+        <v>4.392680063757298</v>
       </c>
       <c r="E19">
-        <v>15.30498584827466</v>
+        <v>10.44511874715145</v>
       </c>
       <c r="F19">
-        <v>28.33847593875656</v>
+        <v>25.24253797416138</v>
       </c>
       <c r="G19">
-        <v>36.03183807218874</v>
+        <v>34.99626681787059</v>
       </c>
       <c r="H19">
-        <v>15.74531477577837</v>
+        <v>10.78634058025214</v>
       </c>
       <c r="I19">
-        <v>27.08481680564621</v>
+        <v>17.09091692067666</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>10.61414541259322</v>
+        <v>17.33852222562428</v>
       </c>
       <c r="L19">
-        <v>9.548718983404401</v>
+        <v>7.211420579611383</v>
       </c>
       <c r="M19">
-        <v>14.53480108981101</v>
+        <v>10.51453208427399</v>
       </c>
       <c r="N19">
-        <v>20.41146800741357</v>
+        <v>12.75220157222926</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.61149531093502</v>
+        <v>12.79986034601816</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.495091236924528</v>
+        <v>4.410507567219322</v>
       </c>
       <c r="E20">
-        <v>15.30584656805929</v>
+        <v>10.46206227425529</v>
       </c>
       <c r="F20">
-        <v>28.37755368917336</v>
+        <v>25.55586679314271</v>
       </c>
       <c r="G20">
-        <v>36.1063773424294</v>
+        <v>35.47570132672036</v>
       </c>
       <c r="H20">
-        <v>15.73916080357413</v>
+        <v>10.83619233864711</v>
       </c>
       <c r="I20">
-        <v>27.05553229741373</v>
+        <v>17.04520408796919</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>10.77117909114719</v>
+        <v>17.65073604193347</v>
       </c>
       <c r="L20">
-        <v>9.557314158942983</v>
+        <v>7.292585165181801</v>
       </c>
       <c r="M20">
-        <v>14.54624972111106</v>
+        <v>10.62650572473579</v>
       </c>
       <c r="N20">
-        <v>20.38884924135468</v>
+        <v>12.66736264879605</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.75475420764071</v>
+        <v>13.46129522127765</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.516540533607901</v>
+        <v>4.469630996328579</v>
       </c>
       <c r="E21">
-        <v>15.30910772310149</v>
+        <v>10.52116788739255</v>
       </c>
       <c r="F21">
-        <v>28.5174566304394</v>
+        <v>26.61393395012989</v>
       </c>
       <c r="G21">
-        <v>36.36892349750349</v>
+        <v>37.09233260959432</v>
       </c>
       <c r="H21">
-        <v>15.7219792844</v>
+        <v>11.01407164342974</v>
       </c>
       <c r="I21">
-        <v>26.96201518700319</v>
+        <v>16.90722324932768</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>11.2807780305931</v>
+        <v>18.66691911579892</v>
       </c>
       <c r="L21">
-        <v>9.587995993888777</v>
+        <v>7.563912002905733</v>
       </c>
       <c r="M21">
-        <v>14.5871332516642</v>
+        <v>11.00015407601368</v>
       </c>
       <c r="N21">
-        <v>20.31493215710882</v>
+        <v>12.38465527669189</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.84956470143788</v>
+        <v>13.88114469167182</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.530351761388352</v>
+        <v>4.50766866079731</v>
       </c>
       <c r="E22">
-        <v>15.31151392328115</v>
+        <v>10.56157369642559</v>
       </c>
       <c r="F22">
-        <v>28.61520767624763</v>
+        <v>27.30883567064665</v>
       </c>
       <c r="G22">
-        <v>36.54931801321141</v>
+        <v>38.15240217866431</v>
       </c>
       <c r="H22">
-        <v>15.71335676666571</v>
+        <v>11.13827291933695</v>
       </c>
       <c r="I22">
-        <v>26.90453147389007</v>
+        <v>16.82935686673576</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>11.60027768701441</v>
+        <v>19.30683457821055</v>
       </c>
       <c r="L22">
-        <v>9.609372748939512</v>
+        <v>7.740019664631435</v>
       </c>
       <c r="M22">
-        <v>14.61562837177837</v>
+        <v>11.24213633295614</v>
       </c>
       <c r="N22">
-        <v>20.26816640899419</v>
+        <v>12.20145406983718</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.79886256254884</v>
+        <v>13.65821767341071</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.522999667738691</v>
+        <v>4.487424015820369</v>
       </c>
       <c r="E23">
-        <v>15.3102045637154</v>
+        <v>10.5398353666659</v>
       </c>
       <c r="F23">
-        <v>28.56246478012383</v>
+        <v>26.93767543997245</v>
       </c>
       <c r="G23">
-        <v>36.45224675835118</v>
+        <v>37.58634655203865</v>
       </c>
       <c r="H23">
-        <v>15.71772017770643</v>
+        <v>11.0712440123014</v>
       </c>
       <c r="I23">
-        <v>26.93487887787787</v>
+        <v>16.86974394893083</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>11.43100208051819</v>
+        <v>18.96749892768771</v>
       </c>
       <c r="L23">
-        <v>9.597843685712157</v>
+        <v>7.646150812625711</v>
       </c>
       <c r="M23">
-        <v>14.60025929631091</v>
+        <v>11.11320707079732</v>
       </c>
       <c r="N23">
-        <v>20.29298534139274</v>
+        <v>12.29910075129309</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.60917560849369</v>
+        <v>12.78884375527153</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.494737222028353</v>
+        <v>4.409531412799867</v>
       </c>
       <c r="E24">
-        <v>15.30579791140058</v>
+        <v>10.46112399558825</v>
       </c>
       <c r="F24">
-        <v>28.37537510704665</v>
+        <v>25.5386385921755</v>
       </c>
       <c r="G24">
-        <v>36.10223793542484</v>
+        <v>35.44934888111983</v>
       </c>
       <c r="H24">
-        <v>15.73948560754956</v>
+        <v>10.83341618687606</v>
       </c>
       <c r="I24">
-        <v>27.05712212800459</v>
+        <v>17.04765737072359</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>10.76262295248259</v>
+        <v>17.6337147311166</v>
       </c>
       <c r="L24">
-        <v>9.556835320997903</v>
+        <v>7.288132626524832</v>
       </c>
       <c r="M24">
-        <v>14.54561185574936</v>
+        <v>10.6203654961588</v>
       </c>
       <c r="N24">
-        <v>20.39008351956787</v>
+        <v>12.67201235206805</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.41046527909914</v>
+        <v>11.7998435236507</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>5.463389159186537</v>
+        <v>4.323092048481712</v>
       </c>
       <c r="E25">
-        <v>15.3022269632886</v>
+        <v>10.3828888318044</v>
       </c>
       <c r="F25">
-        <v>28.2013007996029</v>
+        <v>24.0481733459857</v>
       </c>
       <c r="G25">
-        <v>35.76385831501894</v>
+        <v>33.16515121343668</v>
       </c>
       <c r="H25">
-        <v>15.77414083957941</v>
+        <v>10.60963828726445</v>
       </c>
       <c r="I25">
-        <v>27.20457666519207</v>
+        <v>17.28813435278822</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.984385109628617</v>
+        <v>16.0896195228998</v>
       </c>
       <c r="L25">
-        <v>9.518410660403719</v>
+        <v>6.898058790307831</v>
       </c>
       <c r="M25">
-        <v>14.49445623831486</v>
+        <v>10.08130807384836</v>
       </c>
       <c r="N25">
-        <v>20.50148554638109</v>
+        <v>13.08211293397359</v>
       </c>
       <c r="O25">
         <v>0</v>
